--- a/spring/spring-poi-excel-resultset/src/main/resources/transformadores.xlsx
+++ b/spring/spring-poi-excel-resultset/src/main/resources/transformadores.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
